--- a/Valuation of Robi/weblink.xlsx
+++ b/Valuation of Robi/weblink.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="web_link" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
